--- a/Mikroekonometria/Zaj_10/koszt_banki.xlsx
+++ b/Mikroekonometria/Zaj_10/koszt_banki.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\$Zajecia_Modelowanie\$Mikroekonometria\Cost function for US banks\N=200_2Q\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-07\Downloads\Zaj_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A60C40-2FBE-47BA-82BD-04E9718551E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="60" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="M_stałe_efekty" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="x_">#REF!</definedName>
     <definedName name="y_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <r>
       <t>Bank Cost Data, 500 Banks, 5 Years:  </t>
@@ -480,17 +492,188 @@
     <t>B</t>
   </si>
   <si>
-    <t>Poniżej cześć danych - firm o numerach od 201 do 400</t>
+    <t>ln(C/w5)</t>
   </si>
   <si>
-    <t>ln(C/w5)</t>
+    <t>Poniżej część danych - firm o numerach od 201 do 400</t>
+  </si>
+  <si>
+    <t>Oneway (individual) effect Within Model</t>
+  </si>
+  <si>
+    <t>Call:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plm(formula = formula_, data = data_plm, effect = c("individual"), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    model = c("within"), index = c("BANK", "t"))</t>
+  </si>
+  <si>
+    <t>Balanced Panel: n = 200, T = 5, N = 1000</t>
+  </si>
+  <si>
+    <t>Residuals:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Min.   1st Qu.    Median   3rd Qu.      Max. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.788693 -0.135089 -0.013861  0.126426  0.808371 </t>
+  </si>
+  <si>
+    <t>Coefficients:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Estimate Std. Error t-value  Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Total Sum of Squares:    1129.2</t>
+  </si>
+  <si>
+    <t>Residual Sum of Squares: 43.725</t>
+  </si>
+  <si>
+    <t>R-Squared:      0.96128</t>
+  </si>
+  <si>
+    <t>Adj. R-Squared: 0.95128</t>
+  </si>
+  <si>
+    <t>F-statistic: 3285.32 on 6 and 794 DF, p-value: &lt; 2.22e-16</t>
+  </si>
+  <si>
+    <t>y_it = alfa_i + beta*x_it + v_it</t>
+  </si>
+  <si>
+    <t>Błąd standardowy</t>
+  </si>
+  <si>
+    <t>t-value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Xln (w1/w5)</t>
+  </si>
+  <si>
+    <t>Xln (w2/w5)</t>
+  </si>
+  <si>
+    <t>Xln (w3/w5)</t>
+  </si>
+  <si>
+    <t>Xln (w4/w5)</t>
+  </si>
+  <si>
+    <t>Xln (Q_A)</t>
+  </si>
+  <si>
+    <t>Xln (Q_B)</t>
+  </si>
+  <si>
+    <t>Xln (w1/w5) 0,391776   0,029257 13,3910 &lt; 2,2e-16 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xln (w2/w5) 0,021872   0,013242  1,6517   0,09898 ,  </t>
+  </si>
+  <si>
+    <t>Xln (w3/w5) 0,176768   0,026012  6,7957 2,115e-11 ***</t>
+  </si>
+  <si>
+    <t>Xln (w4/w5) 0,142232   0,019009  7,4823 1,939e-13 ***</t>
+  </si>
+  <si>
+    <t>Xln (Q_A)   0,826984   0,012174 67,9292 &lt; 2,2e-16 ***</t>
+  </si>
+  <si>
+    <t>Xln (Q_B)   0,122133   0,012262  9,9600 &lt; 2,2e-16 ***</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost ceny pracy powodował wzrost kosztu (całkowitego) średnio o 0,39% z błędem +/- 0,03, ceteris paribus</t>
+  </si>
+  <si>
+    <t>&lt;---</t>
+  </si>
+  <si>
+    <t>beta1, … , beta5 to elastyczności kosztu względem cen i produktów</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost ceny kapitału fizycznego powodował wzrost kosztu całkowitego średnio o 0,02% z błędem +/- 0,01, ceteris paribus</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost ceny środków pieniężnych z rynku międzybankowego powodował wzrost kosztu całkowitego średnio o 0,18% z błędem +/- 0,03, ceteris paribus</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost ceny depozytów na żądanie powodował wzrost kosztu całkowitego średnio o 0,14% z błędem +/- 0,02, ceteris paribus</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>beta2</t>
+  </si>
+  <si>
+    <t>beta3</t>
+  </si>
+  <si>
+    <t>beta4</t>
+  </si>
+  <si>
+    <t>beta5</t>
+  </si>
+  <si>
+    <t>beta6</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>elastyczność</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>Elastyczność</t>
+  </si>
+  <si>
+    <t>wit1 - cena pracy</t>
+  </si>
+  <si>
+    <t>wit2 - cena kapitału</t>
+  </si>
+  <si>
+    <t>wit3 - cena środków pieniężnych z rynku międzybankowego</t>
+  </si>
+  <si>
+    <t>wit4 - cena depozytów na żądanie</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost wartości kredytów typu A powodował wzrost kosztu całkowitego średnio o aż 0,83% z błędem +/- 0,01, ceteris paribus</t>
+  </si>
+  <si>
+    <t>1%-wy wzrost wartości kredytów typu B powodował wzrost kosztu całkowitego średnio o 0,12% z błędem +/- 0,01, ceteris paribus</t>
+  </si>
+  <si>
+    <t>INTERPRETACJE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -570,16 +753,59 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -587,11 +813,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,6 +1077,81 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -883,11 +1431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1607,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1087,7 +1635,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -51135,15 +51683,635 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:AC31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="J17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="44"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="12"/>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.39177600000000001</v>
+      </c>
+      <c r="K18" s="32">
+        <v>2.9256999999999998E-2</v>
+      </c>
+      <c r="L18" s="26">
+        <v>13.391</v>
+      </c>
+      <c r="M18" s="26">
+        <v>2.2E-16</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="36"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B19" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="12"/>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="33">
+        <v>2.1871999999999999E-2</v>
+      </c>
+      <c r="K19" s="32">
+        <v>1.3242E-2</v>
+      </c>
+      <c r="L19" s="26">
+        <v>1.6516999999999999</v>
+      </c>
+      <c r="M19" s="26">
+        <v>9.8979999999999999E-2</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="38"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="12"/>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.17676800000000001</v>
+      </c>
+      <c r="K20" s="32">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L20" s="26">
+        <v>6.7960000000000003</v>
+      </c>
+      <c r="M20" s="26">
+        <v>2.1149999999999999E-11</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="38"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="12"/>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="34">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K21" s="32">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L21" s="26">
+        <v>7.48</v>
+      </c>
+      <c r="M21" s="26">
+        <v>1.9390000000000001E-13</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="38"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B22" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="12"/>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L22" s="26">
+        <v>67.929199999999994</v>
+      </c>
+      <c r="M22" s="26">
+        <v>2.2E-16</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="36"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="12"/>
+      <c r="H23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0.122</v>
+      </c>
+      <c r="K23" s="32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M23" s="26">
+        <v>2.2E-16</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="41"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="P26" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="P27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="P28">
+        <v>0.39177600000000001</v>
+      </c>
+      <c r="Q28">
+        <f>_xlfn.RANK.EQ(P28,$P$28:$P$31,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="P29">
+        <v>2.1871999999999999E-2</v>
+      </c>
+      <c r="Q29">
+        <f>_xlfn.RANK.EQ(P29,$P$28:$P$31,0)</f>
+        <v>4</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="P30">
+        <v>0.17676800000000001</v>
+      </c>
+      <c r="Q30">
+        <f>_xlfn.RANK.EQ(P30,$P$28:$P$31,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="P31">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="Q31">
+        <f>_xlfn.RANK.EQ(P31,$P$28:$P$31,0)</f>
+        <v>3</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="P21:AC21"/>
+    <mergeCell ref="P20:AC20"/>
+    <mergeCell ref="P19:AC19"/>
+    <mergeCell ref="P18:AC18"/>
+    <mergeCell ref="P17:AC17"/>
+    <mergeCell ref="P23:AC23"/>
+    <mergeCell ref="P22:AC22"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>